--- a/TestRuns.xlsx
+++ b/TestRuns.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Grafiek1" sheetId="2" r:id="rId1"/>
     <sheet name="Grafiek2" sheetId="3" r:id="rId2"/>
     <sheet name="Grafiek3" sheetId="4" r:id="rId3"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Grafiek4" sheetId="5" r:id="rId4"/>
+    <sheet name="Grafiek5" sheetId="6" r:id="rId5"/>
+    <sheet name="Grafiek6" sheetId="7" r:id="rId6"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>2 kanalen [ns]</t>
   </si>
@@ -64,6 +67,12 @@
   <si>
     <t>nanoseconden</t>
   </si>
+  <si>
+    <t>26,38 uur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22,33 uur </t>
+  </si>
 </sst>
 </file>
 
@@ -71,9 +80,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -129,14 +138,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -318,11 +327,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2004107072"/>
-        <c:axId val="-2002329424"/>
+        <c:axId val="-2114277296"/>
+        <c:axId val="-2097411360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2004107072"/>
+        <c:axId val="-2114277296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +373,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2002329424"/>
+        <c:crossAx val="-2097411360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2002329424"/>
+        <c:axId val="-2097411360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +432,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2004107072"/>
+        <c:crossAx val="-2114277296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -482,7 +491,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -577,11 +585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1809083248"/>
-        <c:axId val="1808835376"/>
+        <c:axId val="-2113986080"/>
+        <c:axId val="-2090164432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1809083248"/>
+        <c:axId val="-2113986080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,7 +631,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1808835376"/>
+        <c:crossAx val="-2090164432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -631,7 +639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1808835376"/>
+        <c:axId val="-2090164432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -698,7 +706,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809083248"/>
+        <c:crossAx val="-2113986080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -757,7 +765,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -878,11 +885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1839685856"/>
-        <c:axId val="1833552480"/>
+        <c:axId val="-2141137344"/>
+        <c:axId val="-2100470496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1839685856"/>
+        <c:axId val="-2141137344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +931,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1833552480"/>
+        <c:crossAx val="-2100470496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -932,7 +939,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1833552480"/>
+        <c:axId val="-2100470496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1004,865 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1839685856"/>
+        <c:crossAx val="-2141137344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:forward val="1.0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$A$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.71263632E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.93926369E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04371035E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.43896684E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.70056496E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.960098874E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0E9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.56E13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2097290720"/>
+        <c:axId val="-2114335744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2097290720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2114335744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2114335744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097290720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:forward val="1.0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.43896684E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.70056496E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.960098874E8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0E9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.56E13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2101953376"/>
+        <c:axId val="-2097885808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2101953376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097885808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2097885808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2101953376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-BE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:forward val="1.0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$E$30:$H$30</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.70056496E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.960098874E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.56E13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2094249136"/>
+        <c:axId val="-2097306336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2094249136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097306336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2097306336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2094249136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1161,6 +2026,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2181,6 +3166,1515 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2706,6 +5200,39 @@
 </file>
 
 <file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -2771,6 +5298,87 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9321101" cy="6082018"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9321101" cy="6082018"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9321101" cy="6082018"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3060,10 +5668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3348,7 +5956,7 @@
         <v>17126363.199999999</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ref="B12:H12" si="0">AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:G12" si="0">AVERAGE(B2:B11)</f>
         <v>19392636.899999999</v>
       </c>
       <c r="C12" s="3">
@@ -3382,7 +5990,7 @@
         <v>1.7126363199999998E-2</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" ref="B13:G13" si="1">B12/(10^9)</f>
+        <f t="shared" ref="B13:F13" si="1">B12/(10^9)</f>
         <v>1.9392636899999999E-2</v>
       </c>
       <c r="C13" s="5">
@@ -3431,7 +6039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H19" s="2">
         <v>540000000000</v>
       </c>
@@ -3439,7 +6047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H20" s="7">
         <f>H19/10^9</f>
         <v>540</v>
@@ -3448,7 +6056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H21" s="7">
         <f>H20/60</f>
         <v>9</v>
@@ -3457,7 +6065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H24" s="7">
         <f>G12*225</f>
         <v>7375088703780</v>
@@ -3466,7 +6074,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H25">
         <f>H24/(10^9)</f>
         <v>7375.0887037800003</v>
@@ -3475,7 +6083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H26">
         <f>H25/60</f>
         <v>122.91814506300001</v>
@@ -3484,7 +6092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H27">
         <f>H26/60</f>
         <v>2.0486357510500004</v>
@@ -3493,7 +6101,47 @@
         <v>10</v>
       </c>
     </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>17126363.199999999</v>
+      </c>
+      <c r="B30" s="3">
+        <v>19392636.899999999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>20437103.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>24389668.399999999</v>
+      </c>
+      <c r="E30" s="3">
+        <v>47005649.600000001</v>
+      </c>
+      <c r="F30" s="3">
+        <v>296009887.39999998</v>
+      </c>
+      <c r="G30" s="3">
+        <v>7000000000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>15600000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32">
+        <v>26.66</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>